--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\LFRA\LFRA\geigermuller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Eficiencia a Beta" sheetId="3" r:id="rId3"/>
     <sheet name="Eficiência a Gamma" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Tensão(V)</t>
   </si>
@@ -98,12 +95,6 @@
     <t xml:space="preserve">ErroN </t>
   </si>
   <si>
-    <t>Nfundo</t>
-  </si>
-  <si>
-    <t>ErroN fundo</t>
-  </si>
-  <si>
     <t>Rmed</t>
   </si>
   <si>
@@ -122,19 +113,20 @@
     <t>Rv</t>
   </si>
   <si>
-    <t>Rreal</t>
+    <t>Erro Real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00,_€_-;\-* #,##0.00,_€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0,_€_-;\-* #,##0.0,_€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -215,9 +207,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,6 +222,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,19 +239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Correcao Taxa Contagem"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,10 +584,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>600</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>0</v>
       </c>
       <c r="C2" s="11">
@@ -621,23 +598,23 @@
         <f t="shared" ref="D2:D26" si="1">B2/20</f>
         <v>0</v>
       </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
         <f t="shared" ref="F2:F26" si="2">D2/49.6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <f t="shared" ref="G2:G26" si="3">SQRT(POWER((E2/49.6),2)+POWER((D2*1.6/(49.6*49.6)),2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>625</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0</v>
       </c>
       <c r="C3" s="11">
@@ -648,23 +625,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>650</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
       <c r="C4" s="11">
@@ -675,23 +652,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>675</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>0</v>
       </c>
       <c r="C5" s="11">
@@ -702,23 +679,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>700</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
       <c r="C6" s="11">
@@ -729,23 +706,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>725</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>991</v>
       </c>
       <c r="C7" s="11">
@@ -756,24 +733,24 @@
         <f t="shared" si="1"/>
         <v>49.55</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" ref="E7:E26" si="4">(1/20)*C7</f>
         <v>1.5740076238697194</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f t="shared" si="2"/>
         <v>0.99899193548387089</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="3"/>
         <v>4.5227581814376028E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>750</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1042</v>
       </c>
       <c r="C8" s="11">
@@ -784,24 +761,24 @@
         <f t="shared" si="1"/>
         <v>52.1</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f t="shared" si="4"/>
         <v>1.6140012391568974</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>1.0504032258064515</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="3"/>
         <v>4.6978697120360145E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>775</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>1080</v>
       </c>
       <c r="C9" s="11">
@@ -812,24 +789,24 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="4"/>
         <v>1.6431676725154984</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f t="shared" si="2"/>
         <v>1.0887096774193548</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="3"/>
         <v>4.8279194331655881E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>800</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>1161</v>
       </c>
       <c r="C10" s="11">
@@ -840,24 +817,24 @@
         <f t="shared" si="1"/>
         <v>58.05</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="4"/>
         <v>1.7036725037400822</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f t="shared" si="2"/>
         <v>1.1703629032258063</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f t="shared" si="3"/>
         <v>5.1040560351406562E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>825</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>1184</v>
       </c>
       <c r="C11" s="11">
@@ -868,24 +845,24 @@
         <f t="shared" si="1"/>
         <v>59.2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="4"/>
         <v>1.7204650534085255</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f t="shared" si="2"/>
         <v>1.1935483870967742</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f t="shared" si="3"/>
         <v>5.1822234292401133E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>850</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>1176</v>
       </c>
       <c r="C12" s="11">
@@ -896,24 +873,24 @@
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="4"/>
         <v>1.7146428199482249</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <f t="shared" si="2"/>
         <v>1.1854838709677418</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f t="shared" si="3"/>
         <v>5.1550461304353389E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>875</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>1168</v>
       </c>
       <c r="C13" s="11">
@@ -924,24 +901,24 @@
         <f t="shared" si="1"/>
         <v>58.4</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="4"/>
         <v>1.7088007490635062</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="2"/>
         <v>1.1774193548387095</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="3"/>
         <v>5.1278567705017333E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>900</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>1220</v>
       </c>
       <c r="C14" s="11">
@@ -952,24 +929,24 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <f t="shared" si="4"/>
         <v>1.7464249196572981</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <f t="shared" si="2"/>
         <v>1.2298387096774193</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f t="shared" si="3"/>
         <v>5.3043769861744389E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>925</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>1251</v>
       </c>
       <c r="C15" s="11">
@@ -980,15 +957,15 @@
         <f t="shared" si="1"/>
         <v>62.55</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="4"/>
         <v>1.7684739183827394</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <f t="shared" si="2"/>
         <v>1.2610887096774193</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f t="shared" si="3"/>
         <v>5.4093844739346787E-2</v>
       </c>
@@ -996,10 +973,10 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>950</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>1294</v>
       </c>
       <c r="C16" s="11">
@@ -1010,15 +987,15 @@
         <f t="shared" si="1"/>
         <v>64.7</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="4"/>
         <v>1.798610574860495</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f t="shared" si="2"/>
         <v>1.3044354838709677</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="3"/>
         <v>5.5547823295082704E-2</v>
       </c>
@@ -1026,10 +1003,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>975</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>1239</v>
       </c>
       <c r="C17" s="11">
@@ -1040,15 +1017,15 @@
         <f t="shared" si="1"/>
         <v>61.95</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f t="shared" si="4"/>
         <v>1.7599715906798044</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <f t="shared" si="2"/>
         <v>1.248991935483871</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f t="shared" si="3"/>
         <v>5.368755518838491E-2</v>
       </c>
@@ -1056,10 +1033,10 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>1000</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>1278</v>
       </c>
       <c r="C18" s="11">
@@ -1070,15 +1047,15 @@
         <f t="shared" si="1"/>
         <v>63.9</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="4"/>
         <v>1.7874562931719478</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f t="shared" si="2"/>
         <v>1.2883064516129032</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f t="shared" si="3"/>
         <v>5.500714539023778E-2</v>
       </c>
@@ -1086,10 +1063,10 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>1025</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>1405</v>
       </c>
       <c r="C19" s="11">
@@ -1100,15 +1077,15 @@
         <f t="shared" si="1"/>
         <v>70.25</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f t="shared" si="4"/>
         <v>1.8741664813991314</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f t="shared" si="2"/>
         <v>1.4163306451612903</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f t="shared" si="3"/>
         <v>5.9288732550224647E-2</v>
       </c>
@@ -1116,10 +1093,10 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>1050</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>1286</v>
       </c>
       <c r="C20" s="11">
@@ -1130,15 +1107,15 @@
         <f t="shared" si="1"/>
         <v>64.3</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="4"/>
         <v>1.7930421077041108</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <f t="shared" si="2"/>
         <v>1.2963709677419355</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f t="shared" si="3"/>
         <v>5.5277533253814778E-2</v>
       </c>
@@ -1146,10 +1123,10 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>1075</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>1320</v>
       </c>
       <c r="C21" s="11">
@@ -1160,15 +1137,15 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <f t="shared" si="4"/>
         <v>1.8165902124584949</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <f t="shared" si="2"/>
         <v>1.3306451612903225</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <f t="shared" si="3"/>
         <v>5.6425607330422428E-2</v>
       </c>
@@ -1176,10 +1153,10 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>1100</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>1374</v>
       </c>
       <c r="C22" s="11">
@@ -1190,15 +1167,15 @@
         <f t="shared" si="1"/>
         <v>68.7</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <f t="shared" si="4"/>
         <v>1.8533752992850638</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <f t="shared" si="2"/>
         <v>1.3850806451612903</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <f t="shared" si="3"/>
         <v>5.8245642842139581E-2</v>
       </c>
@@ -1206,10 +1183,10 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>1125</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>1382</v>
       </c>
       <c r="C23" s="11">
@@ -1220,15 +1197,15 @@
         <f t="shared" si="1"/>
         <v>69.099999999999994</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <f t="shared" si="4"/>
         <v>1.8587630295441107</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f t="shared" si="2"/>
         <v>1.3931451612903225</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <f t="shared" si="3"/>
         <v>5.8514944820562055E-2</v>
       </c>
@@ -1236,10 +1213,10 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>1150</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>1315</v>
       </c>
       <c r="C24" s="11">
@@ -1250,15 +1227,15 @@
         <f t="shared" si="1"/>
         <v>65.75</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <f t="shared" si="4"/>
         <v>1.8131464364468746</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <f t="shared" si="2"/>
         <v>1.3256048387096775</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <f t="shared" si="3"/>
         <v>5.6256879573849339E-2</v>
       </c>
@@ -1266,10 +1243,10 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>1175</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>1407</v>
       </c>
       <c r="C25" s="11">
@@ -1280,15 +1257,15 @@
         <f t="shared" si="1"/>
         <v>70.349999999999994</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f t="shared" si="4"/>
         <v>1.8754999333511053</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <f t="shared" si="2"/>
         <v>1.4183467741935483</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <f t="shared" si="3"/>
         <v>5.9355987097632214E-2</v>
       </c>
@@ -1296,10 +1273,10 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>1200</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>1469</v>
       </c>
       <c r="C26" s="11">
@@ -1310,15 +1287,15 @@
         <f t="shared" si="1"/>
         <v>73.45</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <f t="shared" si="4"/>
         <v>1.9163767896736801</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f t="shared" si="2"/>
         <v>1.4808467741935485</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <f t="shared" si="3"/>
         <v>6.143850915356705E-2</v>
       </c>
@@ -1336,7 +1313,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,6 +1327,7 @@
     <col min="7" max="7" width="9.44140625"/>
     <col min="8" max="8" width="11.33203125"/>
     <col min="9" max="9" width="9.77734375"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5546875"/>
     <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="1024" width="8.5546875"/>
@@ -1378,17 +1356,16 @@
         <v>13</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1425,15 +1402,11 @@
         <f>G2/120</f>
         <v>1.2518319908571331</v>
       </c>
-      <c r="J2" s="16">
-        <f t="shared" ref="J2:J5" si="0">H2/(1-$A$8*H2)</f>
-        <v>202.05542105525885</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="14">
-        <f>J2-$H$5</f>
+      <c r="J2" s="15">
+        <f>H2/(1-$A$8*H2)-$H$5</f>
         <v>201.69708772192553</v>
       </c>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1462,22 +1435,18 @@
         <v>146.71400751121212</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H4" si="1">F3/120</f>
+        <f t="shared" ref="H3:H4" si="0">F3/120</f>
         <v>179.375</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I5" si="2">G3/120</f>
+        <f t="shared" ref="I3:I5" si="1">G3/120</f>
         <v>1.2226167292601009</v>
       </c>
-      <c r="J3" s="16">
-        <f t="shared" si="0"/>
-        <v>192.07441634241243</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14">
-        <f>H3-$H$5</f>
-        <v>179.01666666666668</v>
-      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J5" si="2">H3/(1-$A$8*H3)-$H$5</f>
+        <v>191.71608300907911</v>
+      </c>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1506,22 +1475,18 @@
         <v>202.74861281892905</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>342.55833333333334</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6895717734910753</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>392.06255387027306</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="14">
-        <f>H4-$H$5</f>
-        <v>342.2</v>
-      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="2"/>
+        <v>391.70422053693972</v>
+      </c>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1554,30 +1519,26 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.464532103585E-2</v>
       </c>
-      <c r="J5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.35838066852173805</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="14">
-        <f>H5-$H$5</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="2"/>
+        <v>4.7335188404717954E-5</v>
+      </c>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1591,10 +1552,10 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1606,14 +1567,14 @@
         <v>2.7886678183016635E-5</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F9" s="6"/>
@@ -1650,7 +1611,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,82 +1619,82 @@
     <col min="1" max="1" width="8.5546875"/>
     <col min="2" max="2" width="10.5546875"/>
     <col min="3" max="5" width="8.5546875"/>
-    <col min="6" max="6" width="12.77734375"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="10.33203125"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875"/>
     <col min="10" max="10" width="9.6640625"/>
     <col min="11" max="1023" width="8.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="14">
         <v>626</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <f>SQRT(A2)</f>
         <v>25.019992006393608</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>651</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <f>SQRT(C2)</f>
         <v>25.514701644346147</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <f>A2+C2</f>
         <v>1277</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="11">
         <f>SQRT(B2*B2+D2*D2)</f>
         <v>35.735136770411273</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="16">
         <f>(E2)/120</f>
         <v>10.641666666666667</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
         <f>F2/120</f>
         <v>0.29779280642009393</v>
       </c>
-      <c r="I2" t="e">
-        <f>J2/(1-'[1]Correcao Taxa Contagem'!A8*J2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="14">
+        <f>G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
+        <v>10.325239553826499</v>
+      </c>
+      <c r="J2" s="14">
         <f>SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2</f>
         <v>0.30015968022084977</v>
       </c>
@@ -1753,106 +1714,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="12.5546875"/>
-    <col min="9" max="9" width="8.5546875"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>1291</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <f>SQRT(A2)</f>
         <v>35.930488446443363</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>1244</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <f>SQRT(C2)</f>
         <v>35.270384177096794</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <f>A2+C2</f>
         <v>2535</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="11">
         <f>SQRT(B2*B2+D2*D2)</f>
         <v>50.34878350069642</v>
       </c>
-      <c r="G2" s="6">
-        <f>'Eficiencia a Beta'!F5</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="e">
-        <f>'Eficiencia a Beta'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2">
-        <f>(E2-G2)/120</f>
+      <c r="G2" s="16">
+        <f>(E2)/120</f>
         <v>21.125</v>
       </c>
-      <c r="J2" t="e">
-        <f>SQRT(F2^2+H2^2)/120</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2">
-        <f>I2/(1-'Correcao Taxa de Contagem'!A8*I2)</f>
-        <v>21.290783262416362</v>
-      </c>
-      <c r="L2" t="e">
-        <f>SQRT(J2^2+ I2^4*'Correcao Taxa de Contagem'!B8^2)/(1-I2*'Correcao Taxa de Contagem'!A8)^2</f>
-        <v>#REF!</v>
+      <c r="H2" s="16">
+        <f>F2/120</f>
+        <v>0.41957319583913683</v>
+      </c>
+      <c r="I2" s="19">
+        <f>G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
+        <v>20.932449929083027</v>
+      </c>
+      <c r="J2" s="14">
+        <f>SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2</f>
+        <v>0.42637185811430089</v>
       </c>
     </row>
   </sheetData>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\LFRA\LFRA\geigermuller\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12020" tabRatio="985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
     <sheet name="Eficiencia a Beta" sheetId="3" r:id="rId3"/>
     <sheet name="Eficiência a Gamma" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -119,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00,_€_-;\-* #,##0.00,_€_-;_-* \-??\ _€_-;_-@_-"/>
@@ -128,7 +126,7 @@
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +156,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,9 +190,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -224,9 +242,13 @@
     </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -336,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -530,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,23 +562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.5546875"/>
-    <col min="3" max="3" width="10.44140625"/>
-    <col min="4" max="4" width="11.44140625"/>
-    <col min="5" max="5" width="10"/>
-    <col min="6" max="7" width="9.77734375"/>
-    <col min="8" max="9" width="8.5546875"/>
-    <col min="10" max="10" width="9.77734375"/>
-    <col min="11" max="1025" width="8.5546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -583,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="14">
         <v>600</v>
       </c>
@@ -610,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="14">
         <v>625</v>
       </c>
@@ -637,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="14">
         <v>650</v>
       </c>
@@ -664,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="14">
         <v>675</v>
       </c>
@@ -691,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="14">
         <v>700</v>
       </c>
@@ -718,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="14">
         <v>725</v>
       </c>
@@ -746,7 +758,7 @@
         <v>4.5227581814376028E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="14">
         <v>750</v>
       </c>
@@ -774,7 +786,7 @@
         <v>4.6978697120360145E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="14">
         <v>775</v>
       </c>
@@ -802,7 +814,7 @@
         <v>4.8279194331655881E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="14">
         <v>800</v>
       </c>
@@ -830,7 +842,7 @@
         <v>5.1040560351406562E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="14">
         <v>825</v>
       </c>
@@ -858,7 +870,7 @@
         <v>5.1822234292401133E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="14">
         <v>850</v>
       </c>
@@ -886,7 +898,7 @@
         <v>5.1550461304353389E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="14">
         <v>875</v>
       </c>
@@ -914,7 +926,7 @@
         <v>5.1278567705017333E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="14">
         <v>900</v>
       </c>
@@ -942,7 +954,7 @@
         <v>5.3043769861744389E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="14">
         <v>925</v>
       </c>
@@ -972,7 +984,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="14">
         <v>950</v>
       </c>
@@ -1002,7 +1014,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="14">
         <v>975</v>
       </c>
@@ -1032,7 +1044,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="14">
         <v>1000</v>
       </c>
@@ -1062,7 +1074,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="14">
         <v>1025</v>
       </c>
@@ -1092,7 +1104,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="14">
         <v>1050</v>
       </c>
@@ -1122,7 +1134,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="14">
         <v>1075</v>
       </c>
@@ -1152,7 +1164,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="14">
         <v>1100</v>
       </c>
@@ -1182,7 +1194,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="14">
         <v>1125</v>
       </c>
@@ -1212,7 +1224,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="14">
         <v>1150</v>
       </c>
@@ -1242,7 +1254,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="14">
         <v>1175</v>
       </c>
@@ -1272,7 +1284,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="14">
         <v>1200</v>
       </c>
@@ -1304,7 +1316,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1312,28 +1329,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.77734375"/>
-    <col min="2" max="2" width="11"/>
-    <col min="3" max="3" width="8.5546875"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="9.44140625"/>
-    <col min="8" max="8" width="11.33203125"/>
-    <col min="9" max="9" width="9.77734375"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="1024" width="8.5546875"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1408,7 +1416,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1456,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1496,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1536,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1540,7 +1548,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1557,7 +1565,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="7">
         <f>(H2+H3-H4)/(2*H2*H3)</f>
         <v>3.6859744903142816E-4</v>
@@ -1576,33 +1584,38 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="F9" s="6"/>
       <c r="H9" s="6"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="H10" s="6"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="F11" s="6"/>
       <c r="H11" s="6"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="D14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1610,24 +1623,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.5546875"/>
-    <col min="2" max="2" width="10.5546875"/>
-    <col min="3" max="5" width="8.5546875"/>
-    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875"/>
-    <col min="10" max="10" width="9.6640625"/>
-    <col min="11" max="1023" width="8.5546875"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="14">
         <v>626</v>
       </c>
@@ -1699,16 +1705,21 @@
         <v>0.30015968022084977</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1716,21 +1727,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="8.5546875"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="14">
         <v>1291</v>
       </c>
@@ -1805,5 +1813,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -223,6 +223,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,13 +1315,13 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375"/>
-    <col min="2" max="2" width="11"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875"/>
     <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -1541,10 +1543,10 @@
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="8"/>
@@ -1558,11 +1560,11 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="21">
         <f>(H2+H3-H4)/(2*H2*H3)</f>
         <v>3.6859744903142816E-4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="21">
         <f>0.5*SQRT(H3^2*(H3-H4)^2*I2+H2^2*(H2-H4)^2*I3+H2^2*H3^2*I4)/(H2^2*H3^2)</f>
         <v>2.7886678183016635E-5</v>
       </c>
@@ -1610,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">ErroR/Ro</t>
   </si>
   <si>
-    <t xml:space="preserve">ola</t>
+    <t xml:space="preserve">ola caralho</t>
   </si>
   <si>
     <t xml:space="preserve">Setup</t>
@@ -206,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,10 +264,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,7 +300,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,13 +1076,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.23481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,11 +1155,11 @@
         <f aca="false">G2/120</f>
         <v>1.25183199085713</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="2" t="n">
         <f aca="false">H2/(1-$A$8*H2)-$H$5</f>
         <v>201.697087721926</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1198,11 +1195,11 @@
         <f aca="false">G3/120</f>
         <v>1.2226167292601</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="2" t="n">
         <f aca="false">H3/(1-$A$8*H3)-$H$5</f>
         <v>191.716083009079</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
@@ -1238,11 +1235,11 @@
         <f aca="false">G4/120</f>
         <v>1.68957177349108</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="2" t="n">
         <f aca="false">H4/(1-$A$8*H4)-$H$5</f>
         <v>391.70422053694</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -1278,11 +1275,11 @@
         <f aca="false">G5/120</f>
         <v>0.05464532103585</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="2" t="n">
         <f aca="false">H5/(1-$A$8*H5)-$H$5</f>
         <v>4.7335188404718E-005</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2"/>
@@ -1294,7 +1291,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
@@ -1314,7 +1311,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="15" t="n">
         <f aca="false">(H2+H3-H4)/(2*H2*H3)</f>
         <v>0.000368597449031428</v>
       </c>
@@ -1356,11 +1353,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.76113360323887"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.33603238866397"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,12 +1456,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9473684210526"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.61133603238866"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.61133603238866"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2348178137652"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1527,7 @@
         <f aca="false">F2/120</f>
         <v>0.419573195839137</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="16" t="n">
         <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
         <v>20.932449929083</v>
       </c>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t xml:space="preserve">Tensão(V)</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">ErroR/Ro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ola caralho</t>
   </si>
   <si>
     <t xml:space="preserve">Setup</t>
@@ -119,16 +116,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00,_€_-;\-* #,##0.00,_€_-;_-* \-??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0,_€_-;\-* #,##0.0,_€_-;_-* \-??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -231,47 +227,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,7 +296,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +343,7 @@
         <f aca="false">B2/20</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -372,7 +370,7 @@
         <f aca="false">B3/20</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -399,7 +397,7 @@
         <f aca="false">B4/20</f>
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
@@ -426,7 +424,7 @@
         <f aca="false">B5/20</f>
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
@@ -453,7 +451,7 @@
         <f aca="false">B6/20</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
@@ -465,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>725</v>
       </c>
@@ -491,9 +489,6 @@
       <c r="G7" s="5" t="n">
         <f aca="false">SQRT(POWER((E7/49.6),2)+POWER((D7*1.6/(49.6*49.6)),2))</f>
         <v>0.045227581814376</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,54 +1071,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.23481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3765182186235"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3765182186235"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>11232</v>
@@ -1163,7 +1158,7 @@
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>10850</v>
@@ -1203,7 +1198,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>20506</v>
@@ -1243,7 +1238,7 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>24</v>
@@ -1295,10 +1290,10 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1353,43 +1348,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.33603238866397"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9473684210526"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,44 +1451,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2348178137652"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4777327935223"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="14.3765182186235"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8016194331984"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">Tensão(V)</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">ErroR/Ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ola duq</t>
   </si>
   <si>
     <t xml:space="preserve">Setup</t>
@@ -288,10 +291,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1046,6 +1049,11 @@
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1066,7 +1074,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1083,42 +1091,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>11232</v>
@@ -1158,7 +1166,7 @@
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>10850</v>
@@ -1198,7 +1206,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>20506</v>
@@ -1238,7 +1246,7 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>24</v>
@@ -1290,10 +1298,10 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1357,34 +1365,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,34 +1469,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" state="visible" r:id="rId2"/>
@@ -116,17 +116,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00,_€_-;\-* #,##0.00,_€_-;_-* \-??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00,_€_-;\-* #,##0.00,_€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000E+00"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +158,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -202,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,63 +220,71 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,15 +307,15 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,724 +345,724 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <f aca="false">SQRT(B2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <f aca="false">B2/20</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <f aca="false">D2/49.6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <f aca="false">SQRT(POWER((E2/49.6),2)+POWER((D2*1.6/(49.6*49.6)),2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="G2" s="3" t="n">
+        <f aca="false">IF(D2&gt;0,SQRT((E2/D2)^2+($E$7/$D$7)^2),0)*F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>625</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <f aca="false">SQRT(B3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <f aca="false">B3/20</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <f aca="false">D3/49.6</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">SQRT(POWER((E3/49.6),2)+POWER((D3*1.6/(49.6*49.6)),2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="G3" s="3" t="n">
+        <f aca="false">IF(D3&gt;0,SQRT((E3/D3)^2+($E$7/$D$7)^2),0)*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <f aca="false">SQRT(B4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <f aca="false">B4/20</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <f aca="false">D4/49.6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">SQRT(POWER((E4/49.6),2)+POWER((D4*1.6/(49.6*49.6)),2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="G4" s="3" t="n">
+        <f aca="false">IF(D4&gt;0,SQRT((E4/D4)^2+($E$7/$D$7)^2),0)*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>675</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <f aca="false">SQRT(B5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <f aca="false">B5/20</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <f aca="false">D5/49.6</f>
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <f aca="false">SQRT(POWER((E5/49.6),2)+POWER((D5*1.6/(49.6*49.6)),2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="G5" s="3" t="n">
+        <f aca="false">IF(D5&gt;0,SQRT((E5/D5)^2+($E$7/$D$7)^2),0)*F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <f aca="false">SQRT(B6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <f aca="false">B6/20</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="n">
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <f aca="false">D6/49.6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <f aca="false">SQRT(POWER((E6/49.6),2)+POWER((D6*1.6/(49.6*49.6)),2))</f>
+      <c r="G6" s="3" t="n">
+        <f aca="false">IF(D6&gt;0,SQRT((E6/D6)^2+($E$7/$D$7)^2),0)*F6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="0" t="n">
         <v>725</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="0" t="n">
         <v>991</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">SQRT(B7)</f>
         <v>31.4801524773944</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <f aca="false">B7/20</f>
         <v>49.55</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="4" t="n">
         <f aca="false">(1/20)*C7</f>
         <v>1.57400762386972</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <f aca="false">D7/49.6</f>
-        <v>0.998991935483871</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <f aca="false">SQRT(POWER((E7/49.6),2)+POWER((D7*1.6/(49.6*49.6)),2))</f>
-        <v>0.045227581814376</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="F7" s="5" t="n">
+        <f aca="false">D7/$D$7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <f aca="false">IF(D7&gt;0,SQRT((E7/D7)^2+($E$7/$D$7)^2),0)*F7</f>
+        <v>0.0449239743482383</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="0" t="n">
         <v>1042</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <f aca="false">SQRT(B8)</f>
         <v>32.2800247831379</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3" t="n">
         <f aca="false">B8/20</f>
         <v>52.1</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="4" t="n">
         <f aca="false">(1/20)*C8</f>
         <v>1.6140012391569</v>
       </c>
       <c r="F8" s="5" t="n">
-        <f aca="false">D8/49.6</f>
-        <v>1.05040322580645</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <f aca="false">SQRT(POWER((E8/49.6),2)+POWER((D8*1.6/(49.6*49.6)),2))</f>
-        <v>0.0469786971203601</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+        <f aca="false">D8/$D$7</f>
+        <v>1.05146316851665</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">IF(D8&gt;0,SQRT((E8/D8)^2+($E$7/$D$7)^2),0)*F8</f>
+        <v>0.0466543418319201</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>775</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="0" t="n">
         <v>1080</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="2" t="n">
         <f aca="false">SQRT(B9)</f>
         <v>32.86335345031</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="3" t="n">
         <f aca="false">B9/20</f>
         <v>54</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="4" t="n">
         <f aca="false">(1/20)*C9</f>
         <v>1.6431676725155</v>
       </c>
       <c r="F9" s="5" t="n">
-        <f aca="false">D9/49.6</f>
-        <v>1.08870967741935</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <f aca="false">SQRT(POWER((E9/49.6),2)+POWER((D9*1.6/(49.6*49.6)),2))</f>
-        <v>0.0482791943316559</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+        <f aca="false">D9/$D$7</f>
+        <v>1.08980827447023</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <f aca="false">IF(D9&gt;0,SQRT((E9/D9)^2+($E$7/$D$7)^2),0)*F9</f>
+        <v>0.0479392731985716</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="0" t="n">
         <v>1161</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="2" t="n">
         <f aca="false">SQRT(B10)</f>
         <v>34.0734500748016</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="3" t="n">
         <f aca="false">B10/20</f>
         <v>58.05</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="4" t="n">
         <f aca="false">(1/20)*C10</f>
         <v>1.70367250374008</v>
       </c>
       <c r="F10" s="5" t="n">
-        <f aca="false">D10/49.6</f>
-        <v>1.17036290322581</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <f aca="false">SQRT(POWER((E10/49.6),2)+POWER((D10*1.6/(49.6*49.6)),2))</f>
-        <v>0.0510405603514066</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+        <f aca="false">D10/$D$7</f>
+        <v>1.1715438950555</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <f aca="false">IF(D10&gt;0,SQRT((E10/D10)^2+($E$7/$D$7)^2),0)*F10</f>
+        <v>0.0506671833071051</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>825</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="0" t="n">
         <v>1184</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="2" t="n">
         <f aca="false">SQRT(B11)</f>
         <v>34.4093010681705</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="3" t="n">
         <f aca="false">B11/20</f>
         <v>59.2</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="4" t="n">
         <f aca="false">(1/20)*C11</f>
         <v>1.72046505340853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <f aca="false">D11/49.6</f>
-        <v>1.19354838709677</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <f aca="false">SQRT(POWER((E11/49.6),2)+POWER((D11*1.6/(49.6*49.6)),2))</f>
-        <v>0.0518222342924011</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <f aca="false">D11/$D$7</f>
+        <v>1.19475277497477</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <f aca="false">IF(D11&gt;0,SQRT((E11/D11)^2+($E$7/$D$7)^2),0)*F11</f>
+        <v>0.0514392940958408</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="0" t="n">
         <v>1176</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="2" t="n">
         <f aca="false">SQRT(B12)</f>
         <v>34.2928563989645</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="3" t="n">
         <f aca="false">B12/20</f>
         <v>58.8</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="4" t="n">
         <f aca="false">(1/20)*C12</f>
         <v>1.71464281994822</v>
       </c>
       <c r="F12" s="5" t="n">
-        <f aca="false">D12/49.6</f>
-        <v>1.18548387096774</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <f aca="false">SQRT(POWER((E12/49.6),2)+POWER((D12*1.6/(49.6*49.6)),2))</f>
-        <v>0.0515504613043534</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <f aca="false">D12/$D$7</f>
+        <v>1.18668012108981</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <f aca="false">IF(D12&gt;0,SQRT((E12/D12)^2+($E$7/$D$7)^2),0)*F12</f>
+        <v>0.0511708504354591</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>875</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="0" t="n">
         <v>1168</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="2" t="n">
         <f aca="false">SQRT(B13)</f>
         <v>34.1760149812701</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="3" t="n">
         <f aca="false">B13/20</f>
         <v>58.4</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="4" t="n">
         <f aca="false">(1/20)*C13</f>
         <v>1.70880074906351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <f aca="false">D13/49.6</f>
-        <v>1.17741935483871</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <f aca="false">SQRT(POWER((E13/49.6),2)+POWER((D13*1.6/(49.6*49.6)),2))</f>
-        <v>0.0512785677050173</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+        <f aca="false">D13/$D$7</f>
+        <v>1.17860746720484</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <f aca="false">IF(D13&gt;0,SQRT((E13/D13)^2+($E$7/$D$7)^2),0)*F13</f>
+        <v>0.0509022829610984</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="0" t="n">
         <v>1220</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="2" t="n">
         <f aca="false">SQRT(B14)</f>
         <v>34.928498393146</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="3" t="n">
         <f aca="false">B14/20</f>
         <v>61</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="4" t="n">
         <f aca="false">(1/20)*C14</f>
         <v>1.7464249196573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <f aca="false">D14/49.6</f>
-        <v>1.22983870967742</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <f aca="false">SQRT(POWER((E14/49.6),2)+POWER((D14*1.6/(49.6*49.6)),2))</f>
-        <v>0.0530437698617444</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+        <f aca="false">D14/$D$7</f>
+        <v>1.23107971745711</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">IF(D14&gt;0,SQRT((E14/D14)^2+($E$7/$D$7)^2),0)*F14</f>
+        <v>0.0526458091320086</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>925</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="0" t="n">
         <v>1251</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="2" t="n">
         <f aca="false">SQRT(B15)</f>
         <v>35.3694783676548</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="3" t="n">
         <f aca="false">B15/20</f>
         <v>62.55</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="4" t="n">
         <f aca="false">(1/20)*C15</f>
         <v>1.76847391838274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <f aca="false">D15/49.6</f>
-        <v>1.26108870967742</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <f aca="false">SQRT(POWER((E15/49.6),2)+POWER((D15*1.6/(49.6*49.6)),2))</f>
-        <v>0.0540938447393468</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+        <f aca="false">D15/$D$7</f>
+        <v>1.26236125126135</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <f aca="false">IF(D15&gt;0,SQRT((E15/D15)^2+($E$7/$D$7)^2),0)*F15</f>
+        <v>0.0536829010461436</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>950</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="0" t="n">
         <v>1294</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="2" t="n">
         <f aca="false">SQRT(B16)</f>
         <v>35.9722114972099</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="3" t="n">
         <f aca="false">B16/20</f>
         <v>64.7</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="4" t="n">
         <f aca="false">(1/20)*C16</f>
         <v>1.7986105748605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <f aca="false">D16/49.6</f>
-        <v>1.30443548387097</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <f aca="false">SQRT(POWER((E16/49.6),2)+POWER((D16*1.6/(49.6*49.6)),2))</f>
-        <v>0.0555478232950827</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+        <f aca="false">D16/$D$7</f>
+        <v>1.30575176589304</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">IF(D16&gt;0,SQRT((E16/D16)^2+($E$7/$D$7)^2),0)*F16</f>
+        <v>0.0551188006005447</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>975</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="0" t="n">
         <v>1239</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="2" t="n">
         <f aca="false">SQRT(B17)</f>
         <v>35.1994318135961</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="3" t="n">
         <f aca="false">B17/20</f>
         <v>61.95</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="4" t="n">
         <f aca="false">(1/20)*C17</f>
         <v>1.7599715906798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <f aca="false">D17/49.6</f>
-        <v>1.24899193548387</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <f aca="false">SQRT(POWER((E17/49.6),2)+POWER((D17*1.6/(49.6*49.6)),2))</f>
-        <v>0.0536875551883849</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+        <f aca="false">D17/$D$7</f>
+        <v>1.25025227043391</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <f aca="false">IF(D17&gt;0,SQRT((E17/D17)^2+($E$7/$D$7)^2),0)*F17</f>
+        <v>0.0532816423438388</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="0" t="n">
         <v>1278</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="2" t="n">
         <f aca="false">SQRT(B18)</f>
         <v>35.749125863439</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="3" t="n">
         <f aca="false">B18/20</f>
         <v>63.9</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="4" t="n">
         <f aca="false">(1/20)*C18</f>
         <v>1.78745629317195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <f aca="false">D18/49.6</f>
-        <v>1.2883064516129</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <f aca="false">SQRT(POWER((E18/49.6),2)+POWER((D18*1.6/(49.6*49.6)),2))</f>
-        <v>0.0550071453902378</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+        <f aca="false">D18/$D$7</f>
+        <v>1.28960645812311</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <f aca="false">IF(D18&gt;0,SQRT((E18/D18)^2+($E$7/$D$7)^2),0)*F18</f>
+        <v>0.0545848590406194</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>1025</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="0" t="n">
         <v>1405</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="2" t="n">
         <f aca="false">SQRT(B19)</f>
         <v>37.4833296279826</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="3" t="n">
         <f aca="false">B19/20</f>
         <v>70.25</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="4" t="n">
         <f aca="false">(1/20)*C19</f>
         <v>1.87416648139913</v>
       </c>
       <c r="F19" s="5" t="n">
-        <f aca="false">D19/49.6</f>
-        <v>1.41633064516129</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <f aca="false">SQRT(POWER((E19/49.6),2)+POWER((D19*1.6/(49.6*49.6)),2))</f>
-        <v>0.0592887325502247</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+        <f aca="false">D19/$D$7</f>
+        <v>1.41775983854692</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <f aca="false">IF(D19&gt;0,SQRT((E19/D19)^2+($E$7/$D$7)^2),0)*F19</f>
+        <v>0.0588126958837765</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>1050</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="0" t="n">
         <v>1286</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="2" t="n">
         <f aca="false">SQRT(B20)</f>
         <v>35.8608421540822</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="3" t="n">
         <f aca="false">B20/20</f>
         <v>64.3</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="4" t="n">
         <f aca="false">(1/20)*C20</f>
         <v>1.79304210770411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <f aca="false">D20/49.6</f>
-        <v>1.29637096774194</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <f aca="false">SQRT(POWER((E20/49.6),2)+POWER((D20*1.6/(49.6*49.6)),2))</f>
-        <v>0.0552775332538148</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+        <f aca="false">D20/$D$7</f>
+        <v>1.29767911200807</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <f aca="false">IF(D20&gt;0,SQRT((E20/D20)^2+($E$7/$D$7)^2),0)*F20</f>
+        <v>0.0548518800816026</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>1075</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="0" t="n">
         <v>1320</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="2" t="n">
         <f aca="false">SQRT(B21)</f>
         <v>36.3318042491699</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="3" t="n">
         <f aca="false">B21/20</f>
         <v>66</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="4" t="n">
         <f aca="false">(1/20)*C21</f>
         <v>1.8165902124585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <f aca="false">D21/49.6</f>
-        <v>1.33064516129032</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <f aca="false">SQRT(POWER((E21/49.6),2)+POWER((D21*1.6/(49.6*49.6)),2))</f>
-        <v>0.0564256073304224</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+        <f aca="false">D21/$D$7</f>
+        <v>1.33198789101917</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <f aca="false">IF(D21&gt;0,SQRT((E21/D21)^2+($E$7/$D$7)^2),0)*F21</f>
+        <v>0.0559856154298261</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="0" t="n">
         <v>1374</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="2" t="n">
         <f aca="false">SQRT(B22)</f>
         <v>37.0675059857013</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="3" t="n">
         <f aca="false">B22/20</f>
         <v>68.7</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="4" t="n">
         <f aca="false">(1/20)*C22</f>
         <v>1.85337529928506</v>
       </c>
       <c r="F22" s="5" t="n">
-        <f aca="false">D22/49.6</f>
-        <v>1.38508064516129</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <f aca="false">SQRT(POWER((E22/49.6),2)+POWER((D22*1.6/(49.6*49.6)),2))</f>
-        <v>0.0582456428421396</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+        <f aca="false">D22/$D$7</f>
+        <v>1.38647830474268</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <f aca="false">IF(D22&gt;0,SQRT((E22/D22)^2+($E$7/$D$7)^2),0)*F22</f>
+        <v>0.0577827832893746</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>1125</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="0" t="n">
         <v>1382</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="2" t="n">
         <f aca="false">SQRT(B23)</f>
         <v>37.1752605908822</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="3" t="n">
         <f aca="false">B23/20</f>
         <v>69.1</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="4" t="n">
         <f aca="false">(1/20)*C23</f>
         <v>1.85876302954411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <f aca="false">D23/49.6</f>
-        <v>1.39314516129032</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <f aca="false">SQRT(POWER((E23/49.6),2)+POWER((D23*1.6/(49.6*49.6)),2))</f>
-        <v>0.0585149448205621</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+        <f aca="false">D23/$D$7</f>
+        <v>1.39455095862765</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <f aca="false">IF(D23&gt;0,SQRT((E23/D23)^2+($E$7/$D$7)^2),0)*F23</f>
+        <v>0.0580486880688581</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="0" t="n">
         <v>1315</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="2" t="n">
         <f aca="false">SQRT(B24)</f>
         <v>36.2629287289375</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="3" t="n">
         <f aca="false">B24/20</f>
         <v>65.75</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="4" t="n">
         <f aca="false">(1/20)*C24</f>
         <v>1.81314643644687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <f aca="false">D24/49.6</f>
-        <v>1.32560483870968</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <f aca="false">SQRT(POWER((E24/49.6),2)+POWER((D24*1.6/(49.6*49.6)),2))</f>
-        <v>0.0562568795738493</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+        <f aca="false">D24/$D$7</f>
+        <v>1.32694248234107</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <f aca="false">IF(D24&gt;0,SQRT((E24/D24)^2+($E$7/$D$7)^2),0)*F24</f>
+        <v>0.0558189992735598</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>1175</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="0" t="n">
         <v>1407</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="2" t="n">
         <f aca="false">SQRT(B25)</f>
         <v>37.5099986670221</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="3" t="n">
         <f aca="false">B25/20</f>
         <v>70.35</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="4" t="n">
         <f aca="false">(1/20)*C25</f>
         <v>1.87549993335111</v>
       </c>
       <c r="F25" s="5" t="n">
-        <f aca="false">D25/49.6</f>
-        <v>1.41834677419355</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <f aca="false">SQRT(POWER((E25/49.6),2)+POWER((D25*1.6/(49.6*49.6)),2))</f>
-        <v>0.0593559870976322</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+        <f aca="false">D25/$D$7</f>
+        <v>1.41977800201816</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <f aca="false">IF(D25&gt;0,SQRT((E25/D25)^2+($E$7/$D$7)^2),0)*F25</f>
+        <v>0.0588790991085921</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="0" t="n">
         <v>1469</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="2" t="n">
         <f aca="false">SQRT(B26)</f>
         <v>38.3275357934736</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="3" t="n">
         <f aca="false">B26/20</f>
         <v>73.45</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="4" t="n">
         <f aca="false">(1/20)*C26</f>
         <v>1.91637678967368</v>
       </c>
       <c r="F26" s="5" t="n">
-        <f aca="false">D26/49.6</f>
-        <v>1.48084677419355</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <f aca="false">SQRT(POWER((E26/49.6),2)+POWER((D26*1.6/(49.6*49.6)),2))</f>
-        <v>0.0614385091535671</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+        <f aca="false">D26/$D$7</f>
+        <v>1.48234106962664</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <f aca="false">IF(D26&gt;0,SQRT((E26/D26)^2+($E$7/$D$7)^2),0)*F26</f>
+        <v>0.0609351619509325</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1066,29 +1083,29 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1116,183 +1133,195 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="2" t="n">
         <v>11232</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">SQRT(B2)</f>
         <v>105.981130395934</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="10" t="n">
         <v>11334</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="10" t="n">
         <f aca="false">SQRT(D2)</f>
         <v>106.461260559886</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="10" t="n">
         <f aca="false">(B2+D2)</f>
         <v>22566</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="11" t="n">
         <f aca="false">SQRT(C2*C2+E2*E2)</f>
         <v>150.219838902856</v>
       </c>
-      <c r="H2" s="14" t="n">
+      <c r="H2" s="12" t="n">
         <f aca="false">F2/120</f>
         <v>188.05</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="13" t="n">
         <f aca="false">G2/120</f>
         <v>1.25183199085713</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <f aca="false">H2/(1-$A$8*H2)-$H$5</f>
-        <v>201.697087721926</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="13" t="n">
+        <f aca="false">H2/(1-$A$8*H2)-$J$5</f>
+        <v>201.697040386737</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">SQRT((SQRT(I2^2+ H2^4*$B$8^2)/(1-H2*$A$8)^2)^2+$K$5^2)</f>
+        <v>1.84063059449343</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="9" t="n">
         <v>10850</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="9" t="n">
         <f aca="false">SQRT(B3)</f>
         <v>104.163333279998</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="10" t="n">
         <v>10675</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="10" t="n">
         <f aca="false">SQRT(D3)</f>
         <v>103.319891598859</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="10" t="n">
         <f aca="false">(B3+D3)</f>
         <v>21525</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="11" t="n">
         <f aca="false">SQRT(C3*C3+E3*E3)</f>
         <v>146.714007511212</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="12" t="n">
         <f aca="false">F3/120</f>
         <v>179.375</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="13" t="n">
         <f aca="false">G3/120</f>
         <v>1.2226167292601</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <f aca="false">H3/(1-$A$8*H3)-$H$5</f>
-        <v>191.716083009079</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="J3" s="13" t="n">
+        <f aca="false">H3/(1-$A$8*H3)-$J$5</f>
+        <v>191.716035673891</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">SQRT((SQRT(I3^2+ H3^4*$B$8^2)/(1-H3*$A$8)^2)^2+$K$5^2)</f>
+        <v>1.73973002098857</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="2" t="n">
         <v>20506</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="9" t="n">
         <f aca="false">SQRT(B4)</f>
         <v>143.199162008721</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="10" t="n">
         <v>20601</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="10" t="n">
         <f aca="false">SQRT(D4)</f>
         <v>143.530484566868</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="10" t="n">
         <f aca="false">(B4+D4)</f>
         <v>41107</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="11" t="n">
         <f aca="false">SQRT(C4*C4+E4*E4)</f>
         <v>202.748612818929</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="12" t="n">
         <f aca="false">F4/120</f>
         <v>342.558333333333</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="13" t="n">
         <f aca="false">G4/120</f>
         <v>1.68957177349108</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <f aca="false">H4/(1-$A$8*H4)-$H$5</f>
-        <v>391.70422053694</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="13" t="n">
+        <f aca="false">H4/(1-$A$8*H4)-$J$5</f>
+        <v>391.704173201751</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">SQRT((SQRT(I4^2+ H4^4*$B$8^2)/(1-H4*$A$8)^2)^2+$K$5^2)</f>
+        <v>4.82448623495527</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="9" t="n">
         <f aca="false">SQRT(B5)</f>
         <v>4.89897948556636</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="10" t="n">
         <f aca="false">SQRT(D5)</f>
         <v>4.35889894354067</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="10" t="n">
         <f aca="false">(B5+D5)</f>
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="11" t="n">
         <f aca="false">SQRT(C5*C5+E5*E5)</f>
         <v>6.557438524302</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="12" t="n">
         <f aca="false">F5/120</f>
         <v>0.358333333333333</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="13" t="n">
         <f aca="false">G5/120</f>
         <v>0.05464532103585</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">H5/(1-$A$8*H5)-$H$5</f>
-        <v>4.7335188404718E-005</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="J5" s="13" t="n">
+        <f aca="false">H5/(1-$A$8*H5)</f>
+        <v>0.358380668521738</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">SQRT(I5^2+ H5^4*$B$8^2)/(1-H5*$A$8)^2</f>
+        <v>0.0546597592038711</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1"/>
@@ -1300,12 +1329,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="n">
         <f aca="false">(H2+H3-H4)/(2*H2*H3)</f>
         <v>0.000368597449031428</v>
@@ -1314,15 +1343,15 @@
         <f aca="false">0.5*SQRT(H3^2*(H3-H4)^2*I2+H2^2*(H2-H4)^2*I3+H2^2*H3^2*I4)/(H2^2*H3^2)</f>
         <v>2.78866781830166E-005</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1342,17 +1371,17 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,41 +1417,41 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="14" t="n">
         <v>626</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="10" t="n">
         <f aca="false">SQRT(A2)</f>
         <v>25.0199920063936</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="14" t="n">
         <v>651</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="10" t="n">
         <f aca="false">SQRT(C2)</f>
         <v>25.5147016443461</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">A2+C2</f>
         <v>1277</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="11" t="n">
         <f aca="false">SQRT(B2*B2+D2*D2)</f>
         <v>35.7351367704113</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="17" t="n">
         <f aca="false">(E2)/120</f>
         <v>10.6416666666667</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="17" t="n">
         <f aca="false">F2/120</f>
         <v>0.297792806420094</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="14" t="n">
         <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
         <v>10.3252395538265</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="14" t="n">
         <f aca="false">SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2</f>
         <v>0.30015968022085</v>
       </c>
@@ -1451,12 +1480,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8016194331984"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,41 +1521,41 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="14" t="n">
         <v>1291</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="10" t="n">
         <f aca="false">SQRT(A2)</f>
         <v>35.9304884464434</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="14" t="n">
         <v>1244</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="10" t="n">
         <f aca="false">SQRT(C2)</f>
         <v>35.2703841770968</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">A2+C2</f>
         <v>2535</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="11" t="n">
         <f aca="false">SQRT(B2*B2+D2*D2)</f>
         <v>50.3487835006964</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="17" t="n">
         <f aca="false">(E2)/120</f>
         <v>21.125</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="17" t="n">
         <f aca="false">F2/120</f>
         <v>0.419573195839137</v>
       </c>
-      <c r="I2" s="16" t="n">
+      <c r="I2" s="18" t="n">
         <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
         <v>20.932449929083</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="14" t="n">
         <f aca="false">SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2</f>
         <v>0.426371858114301</v>
       </c>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" state="visible" r:id="rId2"/>
@@ -228,11 +228,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,8 +307,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -363,8 +363,8 @@
       <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <f aca="false">D2/49.6</f>
+      <c r="F2" s="4" t="n">
+        <f aca="false">D2/$D$7</f>
         <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
@@ -390,8 +390,8 @@
       <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <f aca="false">D3/49.6</f>
+      <c r="F3" s="4" t="n">
+        <f aca="false">D3/$D$7</f>
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
@@ -417,8 +417,8 @@
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <f aca="false">D4/49.6</f>
+      <c r="F4" s="4" t="n">
+        <f aca="false">D4/$D$7</f>
         <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
@@ -444,8 +444,8 @@
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <f aca="false">D5/49.6</f>
+      <c r="F5" s="4" t="n">
+        <f aca="false">D5/$D$7</f>
         <v>0</v>
       </c>
       <c r="G5" s="3" t="n">
@@ -471,8 +471,8 @@
       <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <f aca="false">D6/49.6</f>
+      <c r="F6" s="4" t="n">
+        <f aca="false">D6/$D$7</f>
         <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
@@ -495,11 +495,11 @@
         <f aca="false">B7/20</f>
         <v>49.55</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <f aca="false">(1/20)*C7</f>
         <v>1.57400762386972</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <f aca="false">D7/$D$7</f>
         <v>1</v>
       </c>
@@ -523,11 +523,11 @@
         <f aca="false">B8/20</f>
         <v>52.1</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">(1/20)*C8</f>
         <v>1.6140012391569</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="4" t="n">
         <f aca="false">D8/$D$7</f>
         <v>1.05146316851665</v>
       </c>
@@ -551,11 +551,11 @@
         <f aca="false">B9/20</f>
         <v>54</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <f aca="false">(1/20)*C9</f>
         <v>1.6431676725155</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <f aca="false">D9/$D$7</f>
         <v>1.08980827447023</v>
       </c>
@@ -579,11 +579,11 @@
         <f aca="false">B10/20</f>
         <v>58.05</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <f aca="false">(1/20)*C10</f>
         <v>1.70367250374008</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="4" t="n">
         <f aca="false">D10/$D$7</f>
         <v>1.1715438950555</v>
       </c>
@@ -607,11 +607,11 @@
         <f aca="false">B11/20</f>
         <v>59.2</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <f aca="false">(1/20)*C11</f>
         <v>1.72046505340853</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="4" t="n">
         <f aca="false">D11/$D$7</f>
         <v>1.19475277497477</v>
       </c>
@@ -635,11 +635,11 @@
         <f aca="false">B12/20</f>
         <v>58.8</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <f aca="false">(1/20)*C12</f>
         <v>1.71464281994822</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="4" t="n">
         <f aca="false">D12/$D$7</f>
         <v>1.18668012108981</v>
       </c>
@@ -663,11 +663,11 @@
         <f aca="false">B13/20</f>
         <v>58.4</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <f aca="false">(1/20)*C13</f>
         <v>1.70880074906351</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="4" t="n">
         <f aca="false">D13/$D$7</f>
         <v>1.17860746720484</v>
       </c>
@@ -691,11 +691,11 @@
         <f aca="false">B14/20</f>
         <v>61</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <f aca="false">(1/20)*C14</f>
         <v>1.7464249196573</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="4" t="n">
         <f aca="false">D14/$D$7</f>
         <v>1.23107971745711</v>
       </c>
@@ -719,11 +719,11 @@
         <f aca="false">B15/20</f>
         <v>62.55</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <f aca="false">(1/20)*C15</f>
         <v>1.76847391838274</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="4" t="n">
         <f aca="false">D15/$D$7</f>
         <v>1.26236125126135</v>
       </c>
@@ -749,11 +749,11 @@
         <f aca="false">B16/20</f>
         <v>64.7</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <f aca="false">(1/20)*C16</f>
         <v>1.7986105748605</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="4" t="n">
         <f aca="false">D16/$D$7</f>
         <v>1.30575176589304</v>
       </c>
@@ -779,11 +779,11 @@
         <f aca="false">B17/20</f>
         <v>61.95</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <f aca="false">(1/20)*C17</f>
         <v>1.7599715906798</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <f aca="false">D17/$D$7</f>
         <v>1.25025227043391</v>
       </c>
@@ -809,11 +809,11 @@
         <f aca="false">B18/20</f>
         <v>63.9</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <f aca="false">(1/20)*C18</f>
         <v>1.78745629317195</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="4" t="n">
         <f aca="false">D18/$D$7</f>
         <v>1.28960645812311</v>
       </c>
@@ -839,11 +839,11 @@
         <f aca="false">B19/20</f>
         <v>70.25</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <f aca="false">(1/20)*C19</f>
         <v>1.87416648139913</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="4" t="n">
         <f aca="false">D19/$D$7</f>
         <v>1.41775983854692</v>
       </c>
@@ -869,11 +869,11 @@
         <f aca="false">B20/20</f>
         <v>64.3</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <f aca="false">(1/20)*C20</f>
         <v>1.79304210770411</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="4" t="n">
         <f aca="false">D20/$D$7</f>
         <v>1.29767911200807</v>
       </c>
@@ -899,11 +899,11 @@
         <f aca="false">B21/20</f>
         <v>66</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <f aca="false">(1/20)*C21</f>
         <v>1.8165902124585</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="4" t="n">
         <f aca="false">D21/$D$7</f>
         <v>1.33198789101917</v>
       </c>
@@ -929,11 +929,11 @@
         <f aca="false">B22/20</f>
         <v>68.7</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <f aca="false">(1/20)*C22</f>
         <v>1.85337529928506</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="4" t="n">
         <f aca="false">D22/$D$7</f>
         <v>1.38647830474268</v>
       </c>
@@ -959,11 +959,11 @@
         <f aca="false">B23/20</f>
         <v>69.1</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <f aca="false">(1/20)*C23</f>
         <v>1.85876302954411</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="4" t="n">
         <f aca="false">D23/$D$7</f>
         <v>1.39455095862765</v>
       </c>
@@ -989,11 +989,11 @@
         <f aca="false">B24/20</f>
         <v>65.75</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <f aca="false">(1/20)*C24</f>
         <v>1.81314643644687</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="4" t="n">
         <f aca="false">D24/$D$7</f>
         <v>1.32694248234107</v>
       </c>
@@ -1019,11 +1019,11 @@
         <f aca="false">B25/20</f>
         <v>70.35</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <f aca="false">(1/20)*C25</f>
         <v>1.87549993335111</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4" t="n">
         <f aca="false">D25/$D$7</f>
         <v>1.41977800201816</v>
       </c>
@@ -1049,11 +1049,11 @@
         <f aca="false">B26/20</f>
         <v>73.45</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <f aca="false">(1/20)*C26</f>
         <v>1.91637678967368</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="4" t="n">
         <f aca="false">D26/$D$7</f>
         <v>1.48234106962664</v>
       </c>
@@ -1371,8 +1371,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -127,7 +127,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,14 +158,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +220,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,14 +300,14 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:A26 F7:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,19 +1075,19 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="2" sqref="A7:A26 F7:G26 K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2307692307692"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2307692307692"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.0485829959514"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,16 +1364,16 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="topLeft" activeCell="D41" activeCellId="2" sqref="A7:A26 F7:G26 D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.76113360323887"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8947368421053"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,17 +1467,17 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="A7:A26 F7:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6153846153846"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="17.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.4777327935223"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" state="visible" r:id="rId2"/>
@@ -127,7 +127,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,14 +158,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +220,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,8 +299,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1083,7 +1075,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1369,10 +1361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1448,14 +1440,15 @@
         <v>0.297792806420094</v>
       </c>
       <c r="I2" s="14" t="n">
-        <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
-        <v>10.3252395538265</v>
+        <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!J5</f>
+        <v>10.3251922186381</v>
       </c>
       <c r="J2" s="14" t="n">
-        <f aca="false">SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2</f>
-        <v>0.30015968022085</v>
-      </c>
-    </row>
+        <f aca="false">SQRT((SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2)^2 + 'Correcao Taxa de Contagem'!K5^2)</f>
+        <v>0.305095924106678</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1474,8 +1467,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1552,12 +1545,12 @@
         <v>0.419573195839137</v>
       </c>
       <c r="I2" s="18" t="n">
-        <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!H5</f>
-        <v>20.932449929083</v>
+        <f aca="false">G2/(1-'Correcao Taxa de Contagem'!A8*G2)-'Correcao Taxa de Contagem'!J5</f>
+        <v>20.9324025938946</v>
       </c>
       <c r="J2" s="14" t="n">
-        <f aca="false">SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2</f>
-        <v>0.426371858114301</v>
+        <f aca="false">SQRT((SQRT(H2^2+ G2^4*'Correcao Taxa de Contagem'!B8^2)/(1-G2*'Correcao Taxa de Contagem'!A8)^2)^2 + 'Correcao Taxa de Contagem'!K5^2)</f>
+        <v>0.429861199305156</v>
       </c>
     </row>
   </sheetData>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">Tensão(V)</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">ErroR/Ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ola fds</t>
   </si>
   <si>
     <t xml:space="preserve">Setup</t>
@@ -297,17 +300,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:A26 F7:G26"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,6 +1058,11 @@
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1075,59 +1083,59 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="2" sqref="A7:A26 F7:G26 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2307692307692"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2307692307692"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.0485829959514"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>11232</v>
@@ -1170,7 +1178,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>10850</v>
@@ -1213,7 +1221,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20506</v>
@@ -1256,7 +1264,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>24</v>
@@ -1311,10 +1319,10 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1364,48 +1372,48 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="2" sqref="A7:A26 F7:G26 D41"/>
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.76113360323887"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8947368421053"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.51821862348178"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6153846153846"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,49 +1475,49 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="A7:A26 F7:G26"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6153846153846"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6194331983806"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="17.2307692307692"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5182186234818"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9473684210526"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,12 +120,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00,_€_-;\-* #,##0.00,_€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="\ * #,##0.00,&quot;   &quot;;\-* #,##0.00,&quot;   &quot;;\ * \-#&quot;    &quot;;@\ "/>
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="#,##0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000E+00"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.000,_€_-;\-* #,##0.000,_€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="\ * #,##0.000,&quot;   &quot;;\-* #,##0.000,&quot;   &quot;;\ * \-#&quot;    &quot;;@\ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -133,7 +133,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,7 +155,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1074,17 +1072,17 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4615384615385"/>
@@ -1247,11 +1245,11 @@
       </c>
       <c r="J4" s="13" t="n">
         <f aca="false">H4/(1-$A$8*H4)-$J$5</f>
-        <v>391.704173201751</v>
+        <v>391.704173201752</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">SQRT((SQRT(I4^2+ H4^4*$B$8^2)/(1-H4*$A$8)^2)^2+$K$5^2)</f>
-        <v>4.82448623495527</v>
+        <v>4.82448623495529</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,7 +1292,7 @@
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">SQRT(I5^2+ H5^4*$B$8^2)/(1-H5*$A$8)^2</f>
-        <v>0.0546597592038711</v>
+        <v>0.0546597592038712</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1327,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="n">
         <f aca="false">(H2+H3-H4)/(2*H2*H3)</f>
-        <v>0.000368597449031428</v>
+        <v>0.000368597449031433</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">0.5*SQRT(H3^2*(H3-H4)^2*I2+H2^2*(H2-H4)^2*I3+H2^2*H3^2*I4)/(H2^2*H3^2)</f>
@@ -1467,17 +1465,17 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>

--- a/geigermuller/Geiger Muller_1.xlsx
+++ b/geigermuller/Geiger Muller_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Resposta" sheetId="1" state="visible" r:id="rId2"/>
@@ -299,15 +299,15 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,12 +492,12 @@
         <v>1.57400762386972</v>
       </c>
       <c r="F7" s="4" t="n">
-        <f aca="false">D7/$D$7</f>
-        <v>1</v>
+        <f aca="false">D7/$D$8</f>
+        <v>0.9510556621881</v>
       </c>
       <c r="G7" s="3" t="n">
-        <f aca="false">IF(D7&gt;0,SQRT((E7/D7)^2+($E$7/$D$7)^2),0)*F7</f>
-        <v>0.0449239743482383</v>
+        <f aca="false">IF(D7&gt;0,SQRT((E7/D7)^2+($E$8/$D$8)^2),0)*F7</f>
+        <v>0.0421991728226705</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,12 +520,12 @@
         <v>1.6140012391569</v>
       </c>
       <c r="F8" s="4" t="n">
-        <f aca="false">D8/$D$7</f>
-        <v>1.05146316851665</v>
+        <f aca="false">D8/$D$8</f>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <f aca="false">IF(D8&gt;0,SQRT((E8/D8)^2+($E$7/$D$7)^2),0)*F8</f>
-        <v>0.0466543418319201</v>
+        <f aca="false">IF(D8&gt;0,SQRT((E8/D8)^2+($E$8/$D$8)^2),0)*F8</f>
+        <v>0.0438107954338324</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,12 +548,12 @@
         <v>1.6431676725155</v>
       </c>
       <c r="F9" s="4" t="n">
-        <f aca="false">D9/$D$7</f>
-        <v>1.08980827447023</v>
+        <f aca="false">D9/$D$8</f>
+        <v>1.03646833013436</v>
       </c>
       <c r="G9" s="3" t="n">
-        <f aca="false">IF(D9&gt;0,SQRT((E9/D9)^2+($E$7/$D$7)^2),0)*F9</f>
-        <v>0.0479392731985716</v>
+        <f aca="false">IF(D9&gt;0,SQRT((E9/D9)^2+($E$8/$D$8)^2),0)*F9</f>
+        <v>0.0450073029849891</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,12 +576,12 @@
         <v>1.70367250374008</v>
       </c>
       <c r="F10" s="4" t="n">
-        <f aca="false">D10/$D$7</f>
-        <v>1.1715438950555</v>
+        <f aca="false">D10/$D$8</f>
+        <v>1.11420345489443</v>
       </c>
       <c r="G10" s="3" t="n">
-        <f aca="false">IF(D10&gt;0,SQRT((E10/D10)^2+($E$7/$D$7)^2),0)*F10</f>
-        <v>0.0506671833071051</v>
+        <f aca="false">IF(D10&gt;0,SQRT((E10/D10)^2+($E$8/$D$8)^2),0)*F10</f>
+        <v>0.0475468532817804</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,12 +604,12 @@
         <v>1.72046505340853</v>
       </c>
       <c r="F11" s="4" t="n">
-        <f aca="false">D11/$D$7</f>
-        <v>1.19475277497477</v>
+        <f aca="false">D11/$D$8</f>
+        <v>1.1362763915547</v>
       </c>
       <c r="G11" s="3" t="n">
-        <f aca="false">IF(D11&gt;0,SQRT((E11/D11)^2+($E$7/$D$7)^2),0)*F11</f>
-        <v>0.0514392940958408</v>
+        <f aca="false">IF(D11&gt;0,SQRT((E11/D11)^2+($E$8/$D$8)^2),0)*F11</f>
+        <v>0.0482655047990983</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,12 +632,12 @@
         <v>1.71464281994822</v>
       </c>
       <c r="F12" s="4" t="n">
-        <f aca="false">D12/$D$7</f>
-        <v>1.18668012108981</v>
+        <f aca="false">D12/$D$8</f>
+        <v>1.12859884836852</v>
       </c>
       <c r="G12" s="3" t="n">
-        <f aca="false">IF(D12&gt;0,SQRT((E12/D12)^2+($E$7/$D$7)^2),0)*F12</f>
-        <v>0.0511708504354591</v>
+        <f aca="false">IF(D12&gt;0,SQRT((E12/D12)^2+($E$8/$D$8)^2),0)*F12</f>
+        <v>0.0480156545260555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,12 +660,12 @@
         <v>1.70880074906351</v>
       </c>
       <c r="F13" s="4" t="n">
-        <f aca="false">D13/$D$7</f>
-        <v>1.17860746720484</v>
+        <f aca="false">D13/$D$8</f>
+        <v>1.12092130518234</v>
       </c>
       <c r="G13" s="3" t="n">
-        <f aca="false">IF(D13&gt;0,SQRT((E13/D13)^2+($E$7/$D$7)^2),0)*F13</f>
-        <v>0.0509022829610984</v>
+        <f aca="false">IF(D13&gt;0,SQRT((E13/D13)^2+($E$8/$D$8)^2),0)*F13</f>
+        <v>0.0477656816467686</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,12 +688,12 @@
         <v>1.7464249196573</v>
       </c>
       <c r="F14" s="4" t="n">
-        <f aca="false">D14/$D$7</f>
-        <v>1.23107971745711</v>
+        <f aca="false">D14/$D$8</f>
+        <v>1.17082533589251</v>
       </c>
       <c r="G14" s="3" t="n">
-        <f aca="false">IF(D14&gt;0,SQRT((E14/D14)^2+($E$7/$D$7)^2),0)*F14</f>
-        <v>0.0526458091320086</v>
+        <f aca="false">IF(D14&gt;0,SQRT((E14/D14)^2+($E$8/$D$8)^2),0)*F14</f>
+        <v>0.0493883636455953</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,12 +716,12 @@
         <v>1.76847391838274</v>
       </c>
       <c r="F15" s="4" t="n">
-        <f aca="false">D15/$D$7</f>
-        <v>1.26236125126135</v>
+        <f aca="false">D15/$D$8</f>
+        <v>1.20057581573896</v>
       </c>
       <c r="G15" s="3" t="n">
-        <f aca="false">IF(D15&gt;0,SQRT((E15/D15)^2+($E$7/$D$7)^2),0)*F15</f>
-        <v>0.0536829010461436</v>
+        <f aca="false">IF(D15&gt;0,SQRT((E15/D15)^2+($E$8/$D$8)^2),0)*F15</f>
+        <v>0.0503534351457303</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -746,12 +746,12 @@
         <v>1.7986105748605</v>
       </c>
       <c r="F16" s="4" t="n">
-        <f aca="false">D16/$D$7</f>
-        <v>1.30575176589304</v>
+        <f aca="false">D16/$D$8</f>
+        <v>1.24184261036468</v>
       </c>
       <c r="G16" s="3" t="n">
-        <f aca="false">IF(D16&gt;0,SQRT((E16/D16)^2+($E$7/$D$7)^2),0)*F16</f>
-        <v>0.0551188006005447</v>
+        <f aca="false">IF(D16&gt;0,SQRT((E16/D16)^2+($E$8/$D$8)^2),0)*F16</f>
+        <v>0.0516894580749926</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -776,12 +776,12 @@
         <v>1.7599715906798</v>
       </c>
       <c r="F17" s="4" t="n">
-        <f aca="false">D17/$D$7</f>
-        <v>1.25025227043391</v>
+        <f aca="false">D17/$D$8</f>
+        <v>1.18905950095969</v>
       </c>
       <c r="G17" s="3" t="n">
-        <f aca="false">IF(D17&gt;0,SQRT((E17/D17)^2+($E$7/$D$7)^2),0)*F17</f>
-        <v>0.0532816423438388</v>
+        <f aca="false">IF(D17&gt;0,SQRT((E17/D17)^2+($E$8/$D$8)^2),0)*F17</f>
+        <v>0.0499800535816937</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -806,12 +806,12 @@
         <v>1.78745629317195</v>
       </c>
       <c r="F18" s="4" t="n">
-        <f aca="false">D18/$D$7</f>
-        <v>1.28960645812311</v>
+        <f aca="false">D18/$D$8</f>
+        <v>1.22648752399232</v>
       </c>
       <c r="G18" s="3" t="n">
-        <f aca="false">IF(D18&gt;0,SQRT((E18/D18)^2+($E$7/$D$7)^2),0)*F18</f>
-        <v>0.0545848590406194</v>
+        <f aca="false">IF(D18&gt;0,SQRT((E18/D18)^2+($E$8/$D$8)^2),0)*F18</f>
+        <v>0.0511926770429384</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -836,12 +836,12 @@
         <v>1.87416648139913</v>
       </c>
       <c r="F19" s="4" t="n">
-        <f aca="false">D19/$D$7</f>
-        <v>1.41775983854692</v>
+        <f aca="false">D19/$D$8</f>
+        <v>1.34836852207294</v>
       </c>
       <c r="G19" s="3" t="n">
-        <f aca="false">IF(D19&gt;0,SQRT((E19/D19)^2+($E$7/$D$7)^2),0)*F19</f>
-        <v>0.0588126958837765</v>
+        <f aca="false">IF(D19&gt;0,SQRT((E19/D19)^2+($E$8/$D$8)^2),0)*F19</f>
+        <v>0.0551256303221706</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -866,12 +866,12 @@
         <v>1.79304210770411</v>
       </c>
       <c r="F20" s="4" t="n">
-        <f aca="false">D20/$D$7</f>
-        <v>1.29767911200807</v>
+        <f aca="false">D20/$D$8</f>
+        <v>1.2341650671785</v>
       </c>
       <c r="G20" s="3" t="n">
-        <f aca="false">IF(D20&gt;0,SQRT((E20/D20)^2+($E$7/$D$7)^2),0)*F20</f>
-        <v>0.0548518800816026</v>
+        <f aca="false">IF(D20&gt;0,SQRT((E20/D20)^2+($E$8/$D$8)^2),0)*F20</f>
+        <v>0.0514411174127653</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -896,12 +896,12 @@
         <v>1.8165902124585</v>
       </c>
       <c r="F21" s="4" t="n">
-        <f aca="false">D21/$D$7</f>
-        <v>1.33198789101917</v>
+        <f aca="false">D21/$D$8</f>
+        <v>1.26679462571977</v>
       </c>
       <c r="G21" s="3" t="n">
-        <f aca="false">IF(D21&gt;0,SQRT((E21/D21)^2+($E$7/$D$7)^2),0)*F21</f>
-        <v>0.0559856154298261</v>
+        <f aca="false">IF(D21&gt;0,SQRT((E21/D21)^2+($E$8/$D$8)^2),0)*F21</f>
+        <v>0.0524958937199758</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -926,12 +926,12 @@
         <v>1.85337529928506</v>
       </c>
       <c r="F22" s="4" t="n">
-        <f aca="false">D22/$D$7</f>
-        <v>1.38647830474268</v>
+        <f aca="false">D22/$D$8</f>
+        <v>1.31861804222649</v>
       </c>
       <c r="G22" s="3" t="n">
-        <f aca="false">IF(D22&gt;0,SQRT((E22/D22)^2+($E$7/$D$7)^2),0)*F22</f>
-        <v>0.0577827832893746</v>
+        <f aca="false">IF(D22&gt;0,SQRT((E22/D22)^2+($E$8/$D$8)^2),0)*F22</f>
+        <v>0.0541676822106734</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -956,12 +956,12 @@
         <v>1.85876302954411</v>
       </c>
       <c r="F23" s="4" t="n">
-        <f aca="false">D23/$D$7</f>
-        <v>1.39455095862765</v>
+        <f aca="false">D23/$D$8</f>
+        <v>1.32629558541267</v>
       </c>
       <c r="G23" s="3" t="n">
-        <f aca="false">IF(D23&gt;0,SQRT((E23/D23)^2+($E$7/$D$7)^2),0)*F23</f>
-        <v>0.0580486880688581</v>
+        <f aca="false">IF(D23&gt;0,SQRT((E23/D23)^2+($E$8/$D$8)^2),0)*F23</f>
+        <v>0.0544150146987209</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -986,12 +986,12 @@
         <v>1.81314643644687</v>
       </c>
       <c r="F24" s="4" t="n">
-        <f aca="false">D24/$D$7</f>
-        <v>1.32694248234107</v>
+        <f aca="false">D24/$D$8</f>
+        <v>1.26199616122841</v>
       </c>
       <c r="G24" s="3" t="n">
-        <f aca="false">IF(D24&gt;0,SQRT((E24/D24)^2+($E$7/$D$7)^2),0)*F24</f>
-        <v>0.0558189992735598</v>
+        <f aca="false">IF(D24&gt;0,SQRT((E24/D24)^2+($E$8/$D$8)^2),0)*F24</f>
+        <v>0.0523408883316579</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -1016,12 +1016,12 @@
         <v>1.87549993335111</v>
       </c>
       <c r="F25" s="4" t="n">
-        <f aca="false">D25/$D$7</f>
-        <v>1.41977800201816</v>
+        <f aca="false">D25/$D$8</f>
+        <v>1.35028790786948</v>
       </c>
       <c r="G25" s="3" t="n">
-        <f aca="false">IF(D25&gt;0,SQRT((E25/D25)^2+($E$7/$D$7)^2),0)*F25</f>
-        <v>0.0588790991085921</v>
+        <f aca="false">IF(D25&gt;0,SQRT((E25/D25)^2+($E$8/$D$8)^2),0)*F25</f>
+        <v>0.0551873909596115</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1046,12 +1046,12 @@
         <v>1.91637678967368</v>
       </c>
       <c r="F26" s="4" t="n">
-        <f aca="false">D26/$D$7</f>
-        <v>1.48234106962664</v>
+        <f aca="false">D26/$D$8</f>
+        <v>1.40978886756238</v>
       </c>
       <c r="G26" s="3" t="n">
-        <f aca="false">IF(D26&gt;0,SQRT((E26/D26)^2+($E$7/$D$7)^2),0)*F26</f>
-        <v>0.0609351619509325</v>
+        <f aca="false">IF(D26&gt;0,SQRT((E26/D26)^2+($E$8/$D$8)^2),0)*F26</f>
+        <v>0.0570995487128433</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -1080,14 +1080,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,11 +1369,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.51821862348178"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6153846153846"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,18 +1467,18 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5182186234818"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9473684210526"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6194331983806"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="13.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
